--- a/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_2_DESC.xlsx
+++ b/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_2_DESC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarciar\Documents\CAIXA\AutoHotKeyEGR\Datos_Prueba\Resultados\Test_FMT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C250F3E-F9D3-4D71-B081-9DF6C867FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84C486F-B096-4187-97C0-D9269DB1C553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{1DCC5C7E-128D-47DE-8E95-45EAE0013658}"/>
+    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{4C94913D-8C19-4C41-9C16-077979381493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71837E7-13A3-481F-9CFC-10F831575BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEE5AF2-E839-4774-B725-A9F84D9BAC15}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
